--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -304,6 +304,45 @@
   </si>
   <si>
     <t>grain</t>
+  </si>
+  <si>
+    <t>Probability per second</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>torsh</t>
+  </si>
+  <si>
+    <t>burning log</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>paint brush</t>
+  </si>
+  <si>
+    <t>Extends</t>
+  </si>
+  <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>manuscript</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>marble plate</t>
   </si>
 </sst>
 </file>
@@ -635,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +691,7 @@
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +719,11 @@
       <c r="I1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -707,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -733,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -753,7 +795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -773,17 +815,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -803,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -823,7 +865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -843,7 +885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -863,7 +905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -883,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -903,7 +945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -923,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -943,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1162,162 +1204,222 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1327,18 +1429,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,18 +1451,21 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>marble plate</t>
+  </si>
+  <si>
+    <t>cigar</t>
+  </si>
+  <si>
+    <t>wood stick</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1119,7 +1125,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -1420,6 +1426,11 @@
     <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -285,9 +285,6 @@
     <t>stone hut</t>
   </si>
   <si>
-    <t>herb field</t>
-  </si>
-  <si>
     <t>harpoon</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
   </si>
   <si>
     <t>wood stick</t>
+  </si>
+  <si>
+    <t>herb</t>
+  </si>
+  <si>
+    <t>flower</t>
   </si>
 </sst>
 </file>
@@ -680,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,7 +729,7 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -823,12 +826,12 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1125,7 +1128,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -1170,12 +1173,12 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1185,47 +1188,47 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -1240,197 +1243,202 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1471,7 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>small stone</t>
   </si>
   <si>
-    <t>Endurance</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Keep size of previous entity</t>
   </si>
   <si>
-    <t>Keep weight of previous entity</t>
-  </si>
-  <si>
     <t>seed</t>
   </si>
   <si>
@@ -352,6 +343,18 @@
   </si>
   <si>
     <t>flower</t>
+  </si>
+  <si>
+    <t>mammoth</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Keep mass of previous entity</t>
+  </si>
+  <si>
+    <t>Decay time</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,36 +711,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -749,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -760,10 +763,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -772,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -786,10 +789,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -801,15 +804,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -821,280 +824,274 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="E13">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1102,10 +1099,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1114,121 +1111,139 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
+        <v>45</v>
+      </c>
+      <c r="I21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -1238,207 +1253,212 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1465,28 +1485,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -689,7 +689,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,11 +831,41 @@
       <c r="A6" t="s">
         <v>87</v>
       </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>88</v>
       </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -850,8 +880,8 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1169,6 +1199,21 @@
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9">

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Decay time</t>
+  </si>
+  <si>
+    <t>totem</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1504,6 +1507,11 @@
     <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>totem</t>
+  </si>
+  <si>
+    <t>menhir</t>
+  </si>
+  <si>
+    <t>dolmen</t>
+  </si>
+  <si>
+    <t>tree house</t>
   </si>
 </sst>
 </file>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1001,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1021,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1041,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1461,57 +1470,72 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18960" windowHeight="11070"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18960" windowHeight="11070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>large critter</t>
   </si>
   <si>
-    <t>deer</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>paint brush</t>
   </si>
   <si>
-    <t>Extends</t>
-  </si>
-  <si>
     <t>sculpture</t>
   </si>
   <si>
@@ -367,6 +361,27 @@
   </si>
   <si>
     <t>tree house</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>deer, horse</t>
+  </si>
+  <si>
+    <t>strike</t>
   </si>
 </sst>
 </file>
@@ -698,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,7 +730,7 @@
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,13 +738,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -738,16 +753,13 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -773,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -799,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -819,7 +831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -839,12 +851,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -859,12 +871,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -879,7 +891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -899,15 +911,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -919,12 +931,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -936,9 +948,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -956,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -976,7 +988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1058,10 +1070,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1098,10 +1110,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1113,15 +1125,15 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1133,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1141,10 +1153,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1156,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1164,10 +1176,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1190,10 +1202,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1210,13 +1222,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1230,10 +1242,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1250,292 +1262,312 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1600,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1578,7 +1610,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1593,12 +1625,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18960" windowHeight="11070" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18960" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>Keep mass of previous entity</t>
   </si>
   <si>
-    <t>Decay time</t>
-  </si>
-  <si>
     <t>totem</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>strike</t>
+  </si>
+  <si>
+    <t>Decay time (change to seconds instead)</t>
   </si>
 </sst>
 </file>
@@ -715,15 +715,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
@@ -744,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -1537,37 +1537,37 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1640,12 +1640,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>Decay time (change to seconds instead)</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,14 +844,14 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>corpse</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>soil</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>0.15</t>
   </si>
   <si>
@@ -388,6 +382,21 @@
   </si>
   <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>huge critter</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
 </sst>
 </file>
@@ -722,7 +731,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,45 +753,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -793,22 +802,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -822,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -834,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -842,113 +851,113 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -956,56 +965,56 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>80</v>
@@ -1024,14 +1033,14 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1045,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1064,8 +1073,8 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
+      <c r="D16">
+        <v>3</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1076,82 +1085,82 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1159,22 +1168,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1182,22 +1191,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1208,56 +1217,56 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>12</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1268,312 +1277,312 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1600,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1646,12 +1655,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -731,7 +731,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1010,17 +1010,14 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>14</v>
       </c>
       <c r="E13">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1037,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1057,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>Decay time (change to seconds instead)</t>
-  </si>
-  <si>
-    <t>1.1</t>
   </si>
   <si>
     <t>0.9</t>
@@ -728,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -840,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -854,13 +851,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
+      <c r="E5">
+        <v>1000</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -877,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -897,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -917,7 +914,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>105</v>
@@ -1005,156 +1002,162 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>100</v>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
+      <c r="E17">
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
       </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -1165,10 +1168,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1177,56 +1180,53 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" t="b">
+        <v>20</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -1234,351 +1234,331 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
         <v>116</v>
       </c>
     </row>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>large stone</t>
-  </si>
-  <si>
-    <t>0.03</t>
   </si>
   <si>
     <t>0.25</t>
@@ -728,7 +725,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -750,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -788,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -799,10 +796,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -814,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -828,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -840,7 +837,7 @@
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -848,90 +845,90 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -940,15 +937,15 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -962,10 +959,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -977,15 +974,15 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -997,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1008,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1017,7 +1014,7 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1062,82 +1059,82 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1145,22 +1142,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1168,22 +1165,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1194,10 +1191,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1209,18 +1206,18 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1229,18 +1226,18 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1254,312 +1251,312 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1586,28 +1583,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1632,12 +1629,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>soil</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>Germination</t>
   </si>
   <si>
@@ -387,10 +384,7 @@
     <t>huge critter</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.14</t>
+    <t>0.125</t>
   </si>
 </sst>
 </file>
@@ -725,7 +719,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,13 +741,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -762,10 +756,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -825,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -845,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -862,16 +856,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -882,16 +876,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -902,16 +896,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -922,13 +916,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -942,10 +936,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -959,10 +953,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -979,10 +973,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1059,16 +1053,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1085,10 +1079,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -1099,10 +1093,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1114,15 +1108,15 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1134,7 +1128,7 @@
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1142,10 +1136,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1157,7 +1151,7 @@
         <v>1000</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1165,10 +1159,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1191,10 +1185,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1211,13 +1205,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1231,10 +1225,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1251,312 +1245,312 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1583,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1629,12 +1623,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
+++ b/trunk/doc/EntityDefinitionOperatorsPhenomenons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>0.125</t>
+  </si>
+  <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>large head (Olmec/Easter island)</t>
   </si>
 </sst>
 </file>
@@ -716,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1551,6 +1557,16 @@
     <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
